--- a/참고자료/프로젝트_진행일정(2020-05-11).xlsx
+++ b/참고자료/프로젝트_진행일정(2020-05-11).xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
